--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1430597.48824814</v>
+        <v>1506127.157912944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800607</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665974</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>291.3697164641079</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>88.01378153007219</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.602131337869949</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>164.1627223755163</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>231.4241432455063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>43.60936768774918</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>128.5001899129494</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>350.1556876227118</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>145.5578725085361</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.76486346740683</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.23408347637928</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>109.9674473915273</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051921</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.467071307533232</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634731</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.35146980185577</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.3374999473602</v>
+        <v>155.8385935972281</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>164.3650309254209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>152.6276470398186</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896908</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>157.242557676666</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>4.024887658367643</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.315822205649</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.8646635050818</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>57.8925985539469</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>13.00407538591742</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>142.3667554121388</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>255.4853389885909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.02126002760841</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
-        <v>128.38373632859</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>87.95056933639118</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>144.270461059545</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1600.226746651594</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="D4" t="n">
-        <v>513.8405610245972</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="E4" t="n">
-        <v>513.8405610245972</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="F4" t="n">
-        <v>366.9506135266868</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9508132650192</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>197.9508132650192</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>61.62190236366743</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>188.5023158795657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1079.559212899076</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>721.2935142923252</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.6493726044919</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>143.6493726044919</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4759,16 +4761,16 @@
         <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347316</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347316</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347316</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347316</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.914759813859</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.146104543745</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.680346282665</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1949.568281034342</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.80648027229054</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>63.80648027229054</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>63.80648027229054</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>63.80648027229054</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>63.80648027229054</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>63.80648027229054</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>63.80648027229054</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>63.80648027229054</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025302</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.0580565471719</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>638.121873619265</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>488.0052342069292</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>488.0052342069292</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>488.0052342069292</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>319.8299125267498</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5236,13 +5238,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774116</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5261,46 +5263,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514065</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5349,31 +5351,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636233</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>252.147293152275</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>101.7292847002183</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688066</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799355</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247831</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466635</v>
+        <v>675.0071030383413</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407766</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324544</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324544</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K18" t="n">
-        <v>485.4047026089419</v>
+        <v>412.6079778147071</v>
       </c>
       <c r="L18" t="n">
-        <v>732.1698305154059</v>
+        <v>659.3731057211704</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011311</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265281</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483977</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247828</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038341</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324542</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>130.9054447954936</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954936</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4412.072442972744</v>
+        <v>4230.423978142507</v>
       </c>
       <c r="C22" t="n">
-        <v>4243.136260044837</v>
+        <v>4061.4877952146</v>
       </c>
       <c r="D22" t="n">
-        <v>4093.019620632502</v>
+        <v>3911.371155802264</v>
       </c>
       <c r="E22" t="n">
-        <v>3945.106527050109</v>
+        <v>3763.458062219871</v>
       </c>
       <c r="F22" t="n">
-        <v>3798.216579552198</v>
+        <v>3616.568114721961</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116274</v>
+        <v>4632.865022116276</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972744</v>
+        <v>4412.072442972746</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.79489128174</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697675</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916371</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>3628.091576844587</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V25" t="n">
-        <v>1332.890986794851</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W25" t="n">
-        <v>1043.47381675789</v>
+        <v>3628.091576844587</v>
       </c>
       <c r="X25" t="n">
-        <v>815.4842658598729</v>
+        <v>3628.091576844587</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.6916867163428</v>
+        <v>3628.091576844587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,34 +6214,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147073</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211706</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011314</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265281</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483978</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
         <v>4860.854573014293</v>
@@ -6412,22 +6414,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014293</v>
+        <v>4702.023706674227</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.725934227851</v>
+        <v>4412.895067887785</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>4158.210579681898</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985004</v>
+        <v>3868.793409644937</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086987</v>
+        <v>3640.80385874692</v>
       </c>
       <c r="Y28" t="n">
-        <v>3578.842145943457</v>
+        <v>3640.80385874692</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6454,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147073</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211706</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011314</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265281</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483978</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3888.981946387243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3888.981946387243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U31" t="n">
-        <v>4433.08360463009</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V31" t="n">
-        <v>4178.399116424203</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W31" t="n">
-        <v>3888.981946387243</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="X31" t="n">
-        <v>3888.981946387243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3888.981946387243</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6679,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.8933943850831</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="C34" t="n">
-        <v>444.8933943850831</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="D34" t="n">
-        <v>444.8933943850831</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="E34" t="n">
-        <v>444.8933943850831</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="F34" t="n">
-        <v>298.0034468871727</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>3668.05077464545</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3517.632766193394</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.15539391668</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>4116.832904686998</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>3888.84335378898</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.8933943850831</v>
+        <v>3668.05077464545</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>710.6134626728254</v>
+        <v>4347.338425602348</v>
       </c>
       <c r="C37" t="n">
-        <v>710.6134626728254</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W37" t="n">
-        <v>931.4060418163556</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="X37" t="n">
-        <v>931.4060418163556</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="Y37" t="n">
-        <v>710.6134626728254</v>
+        <v>4528.986890432588</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>356.6647764207315</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>356.6647764207315</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>356.6647764207315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7454,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.319213292873</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>4054.319213292873</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>4054.319213292873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4571.72593422785</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>4282.30876419089</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.319213292873</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.319213292873</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5343297994526</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>391.6040140015125</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079765</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="C46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E46" t="n">
-        <v>465.7659634441654</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F46" t="n">
-        <v>465.7659634441654</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G46" t="n">
-        <v>297.590641763986</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>4180.346305837192</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="X46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="Y46" t="n">
-        <v>465.7659634441654</v>
+        <v>3925.661817631305</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>360.5026862907258</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>73.53204524670582</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711734</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>288.40918257768</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9883,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119928</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670537</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659913</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670537</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.874910276575</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.9463809760088</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.87805368215777e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567388</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.503331289626658e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>77.0677756624163</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.15606851601738</v>
+        <v>10.65497486614944</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>87.77261239840709</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.8953512967724</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542497</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338172325</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.2124647402097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338818</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>116.6289049582958</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>52.52664691032516</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>154.2427457127104</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>144.1562429244522</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>30.75201340998646</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>223.5017383089826</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
-        <v>18.0502263179792</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>60.96325903114494</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>141.9668913390323</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238881</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="O2" t="n">
-        <v>469234.8716852506</v>
-      </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.90779711981304e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338381</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773398</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.582216512</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
         <v>226417.2969980325</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
         <v>-184344.9742580962</v>
       </c>
       <c r="F6" t="n">
+        <v>340815.0622188014</v>
+      </c>
+      <c r="G6" t="n">
+        <v>340815.0622187997</v>
+      </c>
+      <c r="H6" t="n">
+        <v>340815.0622187993</v>
+      </c>
+      <c r="I6" t="n">
+        <v>340815.0622187999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>164391.8430262069</v>
+      </c>
+      <c r="K6" t="n">
+        <v>340815.0622187998</v>
+      </c>
+      <c r="L6" t="n">
         <v>340815.0622188</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>206014.0469849618</v>
+      </c>
+      <c r="N6" t="n">
+        <v>340815.0622188003</v>
+      </c>
+      <c r="O6" t="n">
         <v>340815.0622187998</v>
       </c>
-      <c r="H6" t="n">
-        <v>340815.0622187999</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>340815.0622188</v>
-      </c>
-      <c r="J6" t="n">
-        <v>164391.8430262071</v>
-      </c>
-      <c r="K6" t="n">
-        <v>340815.0622188</v>
-      </c>
-      <c r="L6" t="n">
-        <v>340815.0622187999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>206014.0469849628</v>
-      </c>
-      <c r="N6" t="n">
-        <v>340815.0622187998</v>
-      </c>
-      <c r="O6" t="n">
-        <v>340815.0622188001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>340815.0622187998</v>
       </c>
     </row>
   </sheetData>
@@ -26744,28 +26746,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>78.36138421436118</v>
+        <v>73.79021906417989</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>57.40726649285905</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>37.59782785066704</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>217.7676476967455</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>117.8168254719067</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>91.35625410458906</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>90.08446343914542</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.527353997971147</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>182.1943859615988</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>35.43509572113017</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.2889148602117</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>642.8663885318339</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782298</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303408</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>621.603755975692</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081193</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782294</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502124</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782294</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756865</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>146.7850892314816</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>469.4364773639908</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506127.157912944</v>
+        <v>1499110.143021234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800607</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665974</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.59930608814281</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>88.01378153007219</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>54.70191565295227</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.1627223755163</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>41.05517205688493</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>97.36779394167118</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5001899129494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>350.1556876227118</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365814</v>
       </c>
       <c r="W10" t="n">
-        <v>83.23408347637928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051921</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>46.90175579878741</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>4.467071307533232</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634731</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33.35146980185577</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>57.959658708781</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.8385935972281</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6276470398186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896908</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>157.242557676666</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.315822205649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>57.8925985539469</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>13.00407538591742</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>77.62540297608163</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.816263526854335</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>255.4853389885909</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>144.270461059545</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4372,10 +4372,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.5023158795657</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5023158795657</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>188.5023158795657</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5023158795657</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
         <v>99.5995062532301</v>
@@ -4521,19 +4521,19 @@
         <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230958</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.5023158795657</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.521729839487</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1079.559212899076</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>721.2935142923252</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2655.679220253692</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2655.679220253692</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2437.044553225755</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2437.044553225755</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.521729839487</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>366.9506135266868</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>197.9508132650192</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>197.9508132650192</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113767</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1949.568281034342</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1949.568281034342</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1949.568281034342</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5993065148977</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514065</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014286</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571598</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636233</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643584</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307616</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526312</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F16" t="n">
-        <v>420.3226148324544</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="G16" t="n">
-        <v>252.147293152275</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>101.7292847002183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688066</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799355</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035277</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247831</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383413</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324544</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324544</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514069</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014286</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231256</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.97260014186</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465294</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121723</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851609</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590529</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614717</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147071</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211704</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011311</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265281</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483977</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.9054447954936</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>130.9054447954936</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>130.9054447954936</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>130.9054447954936</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>130.9054447954936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>130.9054447954936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9054447954936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035277</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247828</v>
+        <v>1440.371160751053</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038341</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324542</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954936</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954936</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954936</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514156</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277025</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341659</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653861</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.87805691801</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136707</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4230.423978142507</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>4061.4877952146</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>3911.371155802264</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>3763.458062219871</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>3616.568114721961</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.15539391668</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014293</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014293</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014293</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116276</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972746</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823868</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514156</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095315</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001779</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.79489128174</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697675</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916371</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3628.091576844587</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3628.091576844587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3628.091576844587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147073</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211706</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011314</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265281</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483978</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4702.023706674227</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4412.895067887785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4158.210579681898</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3868.793409644937</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3640.80385874692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.80385874692</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,46 +6448,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147073</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211706</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011314</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265281</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483978</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473452</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262958</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765161</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706293</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336687</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3668.05077464545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C34" t="n">
-        <v>3668.05077464545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D34" t="n">
-        <v>3668.05077464545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E34" t="n">
-        <v>3668.05077464545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F34" t="n">
-        <v>3668.05077464545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3668.05077464545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3517.632766193394</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4660.934562929845</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4406.250074723958</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>4116.832904686998</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>3888.84335378898</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>3668.05077464545</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4347.338425602348</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576118</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>4749.779469576118</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>4749.779469576118</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y37" t="n">
-        <v>4528.986890432588</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>272.2775278140555</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.064856369034</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4180.346305837192</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776804</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53204524670582</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711734</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229635</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720825</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.40918257768</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119928</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670537</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659913</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670537</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928411</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.87805368215777e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.5918126645902</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.9521741567388</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626658e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.0677756624163</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>163.5879023496082</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.65497486614944</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.8953512967724</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338172325</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338818</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>52.52664691032516</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>154.2427457127104</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>70.99007004213072</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>160.4305575717735</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.75201340998646</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>141.9668913390323</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935011.5272238882</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238881</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
@@ -26340,22 +26340,22 @@
         <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.90779711981304e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338381</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773397</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773398</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871649</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871649</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165123</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980326</v>
       </c>
       <c r="D6" t="n">
         <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.9742580962</v>
+        <v>-185319.5655178175</v>
       </c>
       <c r="F6" t="n">
-        <v>340815.0622188014</v>
+        <v>339840.4709590782</v>
       </c>
       <c r="G6" t="n">
-        <v>340815.0622187997</v>
+        <v>339840.4709590784</v>
       </c>
       <c r="H6" t="n">
-        <v>340815.0622187993</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="I6" t="n">
-        <v>340815.0622187999</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="J6" t="n">
-        <v>164391.8430262069</v>
+        <v>163417.2517664854</v>
       </c>
       <c r="K6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="L6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="M6" t="n">
-        <v>206014.0469849618</v>
+        <v>205039.4557252412</v>
       </c>
       <c r="N6" t="n">
-        <v>340815.0622188003</v>
+        <v>339840.4709590781</v>
       </c>
       <c r="O6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590781</v>
       </c>
       <c r="P6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590781</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>299.3310639841189</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>73.79021906417989</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>57.40726649285905</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>163.8827376991425</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.7676476967455</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>13.42323051792676</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>37.59782785066704</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.08446343914542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.527353997971147</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724665</v>
       </c>
       <c r="W10" t="n">
-        <v>203.2889148602117</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34938,7 +34938,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435302</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005173</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092045</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879387</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782298</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303408</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879387</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734289</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.093414931524</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415161</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953152</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>621.603755975692</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.093414931524</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081193</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782294</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502124</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782294</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221192</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>621.6037559756865</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>469.4364773639908</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1499110.143021234</v>
+        <v>1504049.405870264</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>82.59930608814281</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>120.1855270503911</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>16.55626470541132</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.70191565295227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.05517205688493</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>123.7310010025639</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>97.36779394167118</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571525</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365814</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.28566982380552</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.90175579878741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>246.7083340210953</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.959658708781</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3264363399661</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5269768002176</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25.07598272309079</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>36.11757471456729</v>
       </c>
     </row>
     <row r="26">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.482788338502</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>61.67102483656849</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>118.4898845065121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>3.295072325547696</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>77.62540297608163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3556,10 +3556,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498014</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>6.816263526854335</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9576419790507</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1293.521057189058</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2344.543391589763</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>711.4054845039988</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087374</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2655.679220253692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2655.679220253692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.044553225755</v>
+        <v>2517.139592455217</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.044553225755</v>
+        <v>2263.377807093308</v>
       </c>
       <c r="V5" t="n">
-        <v>2105.981665882184</v>
+        <v>1932.314919749737</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.981665882184</v>
+        <v>1579.546264479623</v>
       </c>
       <c r="X5" t="n">
-        <v>1732.515907621104</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.515907621104</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>366.9506135266868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9508132650192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>197.9508132650192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1271.434977823146</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>295.0106108202086</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.371160751053</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.242521964611</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1151.242521964611</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>861.8253519276506</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>633.8358010296332</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5952,10 +5952,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6411,7 +6411,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6463,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9038434870658</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>216.9038434870658</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6897,13 +6897,13 @@
         <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,10 +6922,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8707282937978</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9345453658909</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.5191931240375</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>272.2775278140555</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
         <v>265.3924131404652</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878253</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X40" t="n">
-        <v>674.7185717878253</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>453.9259926442952</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,55 +7645,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7842,16 +7842,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>32.78140656352406</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819338</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>194.2618912345837</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.5918126645902</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.52901837748209</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>163.5879023496082</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.25821701212874</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.508670629004</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>182.4670786375275</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>84.76293781000068</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>26.93116351641913</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2279260110433</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>70.99007004213072</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4305575717735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>163.1458727986148</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.18000134477734</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
@@ -26328,28 +26328,28 @@
         <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773395</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165123</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980326</v>
+        <v>226417.2969980324</v>
       </c>
       <c r="D6" t="n">
         <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-185319.5655178175</v>
+        <v>-184442.4333840687</v>
       </c>
       <c r="F6" t="n">
-        <v>339840.4709590782</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="G6" t="n">
-        <v>339840.4709590784</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="H6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="I6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="J6" t="n">
-        <v>163417.2517664854</v>
+        <v>164294.3839002349</v>
       </c>
       <c r="K6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="L6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="M6" t="n">
-        <v>205039.4557252412</v>
+        <v>205916.5878589903</v>
       </c>
       <c r="N6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928274</v>
       </c>
       <c r="O6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="P6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928275</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299.3310639841189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>96.26279330726669</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.56648524950298</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8827376991425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.42323051792676</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>92.71731935509386</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>37.59782785066704</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359962</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195484</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
